--- a/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2005-12-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C-A  Diff-in-DiffDAGOLS 2005-12-31 to 2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>C/A Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
   </si>
   <si>
     <t>Constant</t>
@@ -37,49 +37,49 @@
     <t>0.032***</t>
   </si>
   <si>
-    <t>-0.039</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t>-0.144</t>
-  </si>
-  <si>
-    <t>3.129***</t>
-  </si>
-  <si>
-    <t>-5.916***</t>
-  </si>
-  <si>
-    <t>6.74***</t>
-  </si>
-  <si>
-    <t>1.117</t>
-  </si>
-  <si>
-    <t>-0.028</t>
+    <t>-0.041</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>-0.135</t>
+  </si>
+  <si>
+    <t>3.116***</t>
+  </si>
+  <si>
+    <t>-5.92***</t>
+  </si>
+  <si>
+    <t>6.726***</t>
+  </si>
+  <si>
+    <t>1.098</t>
+  </si>
+  <si>
+    <t>-0.029</t>
   </si>
   <si>
     <t>-0.043***</t>
   </si>
   <si>
-    <t>-0.092</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>0.018</t>
+    <t>-0.086</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.014</t>
   </si>
   <si>
     <t>0.027***</t>
   </si>
   <si>
-    <t>-0.051</t>
-  </si>
-  <si>
-    <t>-0.044</t>
+    <t>-0.048</t>
+  </si>
+  <si>
+    <t>-0.045</t>
   </si>
 </sst>
 </file>
